--- a/file import/vm.xlsx
+++ b/file import/vm.xlsx
@@ -31,21 +31,12 @@
     <t>nama_alat</t>
   </si>
   <si>
-    <t>nama_vm</t>
-  </si>
-  <si>
     <t>tipe</t>
   </si>
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>ip_vm</t>
-  </si>
-  <si>
-    <t>os_vm</t>
-  </si>
-  <si>
     <t>server_vm</t>
   </si>
   <si>
@@ -341,6 +332,15 @@
   </si>
   <si>
     <t>10.10.10.9</t>
+  </si>
+  <si>
+    <t>nama_host</t>
+  </si>
+  <si>
+    <t>ip_host</t>
+  </si>
+  <si>
+    <t>os_host</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,22 +785,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -811,936 +811,936 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
